--- a/tut05/output/0401ME19.xlsx
+++ b/tut05/output/0401ME19.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.979591836734694</v>
+        <v>6.98</v>
       </c>
       <c r="C6" t="n">
         <v>6.5</v>
       </c>
       <c r="D6" t="n">
-        <v>7.74468085106383</v>
+        <v>7.74</v>
       </c>
       <c r="E6" t="n">
-        <v>7.530612244897959</v>
+        <v>7.53</v>
       </c>
       <c r="F6" t="n">
-        <v>7.304347826086956</v>
+        <v>7.3</v>
       </c>
       <c r="G6" t="n">
-        <v>7.391304347826087</v>
+        <v>7.39</v>
       </c>
       <c r="H6" t="n">
         <v>9.050000000000001</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.979591836734694</v>
+        <v>6.98</v>
       </c>
       <c r="C8" t="n">
-        <v>6.752688172043011</v>
+        <v>6.75</v>
       </c>
       <c r="D8" t="n">
-        <v>7.085714285714285</v>
+        <v>7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>7.201058201058201</v>
+        <v>7.2</v>
       </c>
       <c r="F8" t="n">
-        <v>7.221276595744681</v>
+        <v>7.22</v>
       </c>
       <c r="G8" t="n">
-        <v>7.249110320284697</v>
+        <v>7.25</v>
       </c>
       <c r="H8" t="n">
-        <v>7.473520249221184</v>
+        <v>7.47</v>
       </c>
       <c r="I8" t="n">
-        <v>7.609418282548477</v>
+        <v>7.61</v>
       </c>
     </row>
   </sheetData>
